--- a/BDA/Tema04/Alu.xlsx
+++ b/BDA/Tema04/Alu.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,17 +20,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">hugokimono@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+  <si>
+    <t xml:space="preserve">nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uno</t>
   </si>
   <si>
     <t xml:space="preserve">ceballospardoraul@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">dos</t>
+  </si>
+  <si>
     <t xml:space="preserve">colomatormojl@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">tres</t>
+  </si>
+  <si>
     <t xml:space="preserve">younesseljylaly100@gmail.com</t>
   </si>
   <si>
@@ -41,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">robertomaratinromoo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuatro</t>
   </si>
   <si>
     <t xml:space="preserve">laumartt96@gmail.com</t>
@@ -97,6 +112,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,120 +194,183 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="28.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
